--- a/Writing/Graphs.xlsx
+++ b/Writing/Graphs.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
   <si>
     <t xml:space="preserve">1_2019 </t>
   </si>
@@ -86,12 +89,231 @@
   <si>
     <t>BALANCED TRAIN SET SMALL-MEDIUM</t>
   </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>PR AUC</t>
+  </si>
+  <si>
+    <t>SMALL MEDIUM</t>
+  </si>
+  <si>
+    <t>Micro</t>
+  </si>
+  <si>
+    <t>importance</t>
+  </si>
+  <si>
+    <t>idn_sito_sk</t>
+  </si>
+  <si>
+    <t>sds_categoria_ateco_intermedia_embed5</t>
+  </si>
+  <si>
+    <t>qta_days_since_last_inbound_contact</t>
+  </si>
+  <si>
+    <t>qta_cnt_contatti_outbound_all_channel_m3</t>
+  </si>
+  <si>
+    <t>val_perc_Abitazioni_Residenti</t>
+  </si>
+  <si>
+    <t>val_perc_Famiglie_6+_Componente</t>
+  </si>
+  <si>
+    <t>val_perc_Famiglie_Alloggio_Altro</t>
+  </si>
+  <si>
+    <t>val_Altitudine_del_centro</t>
+  </si>
+  <si>
+    <t>val_totale_istruzione_pesata</t>
+  </si>
+  <si>
+    <t>val_perc_Famiglie_3_Componente</t>
+  </si>
+  <si>
+    <t>val_pop_res_totale_15_anni_e_piu_non_appartenente_alle_forze_di_lavoro_nfl</t>
+  </si>
+  <si>
+    <t>lds_comune_fornitura_embed7</t>
+  </si>
+  <si>
+    <t>val_pop_res_totale</t>
+  </si>
+  <si>
+    <t>val_perc_Famiglie_5_Componente</t>
+  </si>
+  <si>
+    <t>val_perc_Famiglie_1_Componente</t>
+  </si>
+  <si>
+    <t>qta_days_last_response_marketing_cli</t>
+  </si>
+  <si>
+    <t>val_pop_res_totale_che_si_sposta_giornalmente_nel_comune_dimora_abituale</t>
+  </si>
+  <si>
+    <t>val_pop_res_totale_che_si_sposta_giornalmente_fuori_dal_comune_dimora_abituale</t>
+  </si>
+  <si>
+    <t>qta_max_days_emissione_fattura_pagamento_servizio_last_6_months_canale_ALL</t>
+  </si>
+  <si>
+    <t>val_Superficie_territoriale</t>
+  </si>
+  <si>
+    <t>qta_cnt_venditori_mercato_libero_gas_comune</t>
+  </si>
+  <si>
+    <t>qta_days_incasso_fattura_today_servizio_ultima_bolletta_emessa_canale_ALL</t>
+  </si>
+  <si>
+    <t>sds_provincia_fatturazione_embed5</t>
+  </si>
+  <si>
+    <t>mds_sottocanale_embed3</t>
+  </si>
+  <si>
+    <t>cdn_cv2_cliente</t>
+  </si>
+  <si>
+    <t>mds_sottocanale_embed7</t>
+  </si>
+  <si>
+    <t>val_t0_month</t>
+  </si>
+  <si>
+    <t>mds_sottocanale_embed6</t>
+  </si>
+  <si>
+    <t>val_reddito_disponibile</t>
+  </si>
+  <si>
+    <t>mds_sottocanale_embed8</t>
+  </si>
+  <si>
+    <t>mds_nome_campagna_last_response_marketing_cli_embed3</t>
+  </si>
+  <si>
+    <t>mds_sottocanale_embed2</t>
+  </si>
+  <si>
+    <t>lds_prodotto_listino_2_embed7</t>
+  </si>
+  <si>
+    <t>sds_provincia_fatturazione_embed8</t>
+  </si>
+  <si>
+    <t>mds_nome_campagna_last_response_marketing_cli_embed5</t>
+  </si>
+  <si>
+    <t>cdc_win_back_m3</t>
+  </si>
+  <si>
+    <t>mds_sottocanale_embed5</t>
+  </si>
+  <si>
+    <t>mds_sottocanale_embed1</t>
+  </si>
+  <si>
+    <t>cdn_cv2_servizio</t>
+  </si>
+  <si>
+    <t>sds_provincia_embed1</t>
+  </si>
+  <si>
+    <t>val_consumi_x_min_over_mean_ciclo_ele_last_6_months</t>
+  </si>
+  <si>
+    <t>val_totale_pagare_x_min_over_mean_ciclo_ele_last_6_months</t>
+  </si>
+  <si>
+    <t>qta_mesi_bw</t>
+  </si>
+  <si>
+    <t>qta_anzianita_servizio</t>
+  </si>
+  <si>
+    <t>cdc_istat</t>
+  </si>
+  <si>
+    <t>sds_provincia_fatturazione_embed4</t>
+  </si>
+  <si>
+    <t>mds_sottocanale_embed4</t>
+  </si>
+  <si>
+    <t>cdc_cap_nrm</t>
+  </si>
+  <si>
+    <t>val_fattura_servizio_ultima_bolletta_emessa_canale_ALL</t>
+  </si>
+  <si>
+    <t>val_consumi_x_min_ciclo_ele_last_6_months</t>
+  </si>
+  <si>
+    <t>val_consumi_x_max_ciclo_ele_last_6_months</t>
+  </si>
+  <si>
+    <t>val_totale_pagare_x_last_ciclo</t>
+  </si>
+  <si>
+    <t>val_importo_addebito_x_sum_ciclo_ele_last_6_months</t>
+  </si>
+  <si>
+    <t>fln_bolletta_web_attiva</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>val_perc_Famiglie_Alloggio_Affitto</t>
+  </si>
+  <si>
+    <t>val_perc_Famiglie_2_Componente</t>
+  </si>
+  <si>
+    <t>lds_comune_fornitura_embed8</t>
+  </si>
+  <si>
+    <t>val_pop_res_totale_15_anni_e_piu_casalinghe</t>
+  </si>
+  <si>
+    <t>val_consumi_famiglie</t>
+  </si>
+  <si>
+    <t>qta_eta_nrm</t>
+  </si>
+  <si>
+    <t>val_perc_Famiglie_4_Componente</t>
+  </si>
+  <si>
+    <t>val_totale_pagare_x_last_over_mean</t>
+  </si>
+  <si>
+    <t>mds_nome_campagna_last_response_marketing_cli_embed4</t>
+  </si>
+  <si>
+    <t>sds_provincia_fatturazione_embed7</t>
+  </si>
+  <si>
+    <t>val_consumi_x_max_over_mean_ciclo_ele_last_6_months</t>
+  </si>
+  <si>
+    <t>val_incasso_servizio_ultima_bolletta_emessa_canale_ALL</t>
+  </si>
+  <si>
+    <t>val_consumi_x_sum_ciclo_ele_last_3_months</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +321,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -135,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -143,6 +390,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2277,6 +2536,1508 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.172499411499344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33670399516931898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21124496886563199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50639749974584103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.107279917641197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18341570639021501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18674015562893501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.156275524487375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34776664970132498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11136118403484099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17985509444196501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.283928925731251</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.128828426268976</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13984310850934301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52884988444715997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26620025915232698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14445891442025799</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.110556230801117</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.73066220146937E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.105405680731436</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.161003197010368</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.23147253040482399</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.34529896402983801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-57F9-48C6-9649-CA800D2962E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="524030632"/>
+        <c:axId val="524024400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="524030632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524024400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="524024400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524030632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$31:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$31:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>8.4136647669683304E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.124839334078146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.123971182196726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10915244448481801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0296805400677301E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.62550972850928E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7196506330461699E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1212905610484299E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2683365491054395E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.04388469278744E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19339802153469099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.44688283794793E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.8135547588515504E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.6251078911652396E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.2184468688742305E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2960054154001095E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5460794029454094E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.107180556524024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED7A-44EC-A874-305F32F8E166}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="488206960"/>
+        <c:axId val="488203352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="488206960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488203352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="488203352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488206960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>importance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>idn_sito_sk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sds_categoria_ateco_intermedia_embed5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>qta_days_since_last_inbound_contact</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>qta_cnt_contatti_outbound_all_channel_m3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>val_perc_Abitazioni_Residenti</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>val_perc_Famiglie_6+_Componente</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>val_perc_Famiglie_Alloggio_Altro</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>val_Altitudine_del_centro</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>val_totale_istruzione_pesata</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.5041999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4867E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4261999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2797000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2766999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2459E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2429000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2121999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1812000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA00-4AB7-81E9-FC2F05042608}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="525529664"/>
+        <c:axId val="525530976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="525529664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525530976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="525530976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525529664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>importance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>idn_sito_sk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cdn_cv2_cliente</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>qta_anzianita_servizio</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>qta_days_last_response_marketing_cli</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>val_perc_Famiglie_Alloggio_Affitto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>val_Altitudine_del_centro</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>val_Superficie_territoriale</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>val_perc_Famiglie_2_Componente</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>val_perc_Famiglie_Alloggio_Altro</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>lds_comune_fornitura_embed8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.0598E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7889000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7328000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6206E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5992999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5940999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5600999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5264999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5144E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B5C-4146-9D4E-429BDDC790F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="492536272"/>
+        <c:axId val="492535944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="492536272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492535944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="492535944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492536272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2437,6 +4198,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
@@ -4084,6 +6005,1974 @@
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
             <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="220">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="220">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4438,6 +8327,141 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>288235</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>593035</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>155713</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>255270</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>560070</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4703,8 +8727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O89" sqref="O89"/>
+    <sheetView showGridLines="0" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5459,4 +9483,1267 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B48"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.172499411499344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.33670399516931898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.21124496886563199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0.50639749974584103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.107279917641197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0.18341570639021501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0.18674015562893501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.156275524487375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0.34776664970132498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.11136118403484099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0.17985509444196501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0.283928925731251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0.128828426268976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0.13984310850934301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>0.52884988444715997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>0.26620025915232698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>0.14445891442025799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>0.110556230801117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>9.73066220146937E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>0.105405680731436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>0.161003197010368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>0.23147253040482399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>0.34529896402983801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>8.4136647669683304E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>0.124839334078146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>0.123971182196726</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>0.10915244448481801</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>7.0296805400677301E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>5.62550972850928E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>4.7196506330461699E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>9.1212905610484299E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>9.2683365491054395E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>6.04388469278744E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>0.19339802153469099</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>9.44688283794793E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>9.8135547588515504E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>9.6251078911652396E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>9.2184468688742305E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>8.2960054154001095E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>9.5460794029454094E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>0.107180556524024</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A29:B29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B56"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2.5041999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2.4867E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2.4261999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2.2797000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2.2766999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2.2459E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2.2429000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2.2121999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2.1812000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2.179E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2.1711999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2.1437999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2.0962000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="7">
+        <v>2.0736999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2.0709000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2.0618999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2.051E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2.0499E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2.0098000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2.0070999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1.933E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1.9231999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1.8908999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1.8822999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1.8506000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1.8419999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1.8353000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1.8350000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1.8294999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1.8227E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1.8178E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1.8176999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1.8155999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1.8135999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1.8053E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1.7950000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1.7711999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="7">
+        <v>1.7676000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1.7631000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1.719E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="6">
+        <v>1.7062000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1.6277E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1.6157000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1.5651000000000002E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1.536E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="7">
+        <v>1.4897000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="6">
+        <v>1.4687E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="7">
+        <v>1.4189E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="6">
+        <v>1.3653999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="7">
+        <v>1.3443E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="6">
+        <v>1.3414000000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="7">
+        <v>1.3195999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="6">
+        <v>1.2607E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="7">
+        <v>6.398E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3.0598E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2.8299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2.7889000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2.7328000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2.6206E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2.5992999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2.5940999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2.5600999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2.5264999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2.5144E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2.5124E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2.4815E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2.4539999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="7">
+        <v>2.4472000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2.3306E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2.3192000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2.3113999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2.2744E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2.2575000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2.2166000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2.2093999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2.2072000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2.1926000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2.1715000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2.1694999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="7">
+        <v>2.1634E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2.1103E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="7">
+        <v>2.0978E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2.0669E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="7">
+        <v>2.0660999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2.0617E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="7">
+        <v>2.0545999999999998E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1.9251000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1.7708000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1.7673999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1.7555000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1.7496999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="7">
+        <v>1.7141E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1.7082E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1.6605000000000002E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="6">
+        <v>1.619E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1.6181000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1.6057999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1.4307E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1.4003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="7">
+        <v>1.0085E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="6">
+        <v>8.6350000000000003E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="7">
+        <v>4.006E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Writing/Graphs.xlsx
+++ b/Writing/Graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,8 @@
     <sheet name="location" sheetId="7" r:id="rId7"/>
     <sheet name="products" sheetId="8" r:id="rId8"/>
     <sheet name="acquisition" sheetId="9" r:id="rId9"/>
+    <sheet name="AUC-2months" sheetId="10" r:id="rId10"/>
+    <sheet name="AUC-3months" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="141">
   <si>
     <t xml:space="preserve">1_2019 </t>
   </si>
@@ -430,6 +432,27 @@
   <si>
     <t>Activation reason</t>
   </si>
+  <si>
+    <t>Area under the PR curve</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>GBT</t>
+  </si>
+  <si>
+    <t>XGB</t>
+  </si>
+  <si>
+    <t>MICRO</t>
+  </si>
 </sst>
 </file>
 
@@ -528,16 +551,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,7 +1043,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1099,7 +1121,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1501,7 +1522,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1832,7 +1852,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2194,7 +2213,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2299,7 +2317,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2420,7 +2437,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2541,7 +2557,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2709,7 +2724,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2814,7 +2828,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2919,7 +2932,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3040,7 +3052,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3161,7 +3172,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3329,7 +3339,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3434,7 +3443,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3539,7 +3547,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3660,7 +3667,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3781,7 +3787,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3949,7 +3954,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4054,7 +4058,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4159,7 +4162,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4292,7 +4294,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4425,7 +4426,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4605,7 +4605,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4710,7 +4709,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4815,7 +4813,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4948,7 +4945,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5081,7 +5077,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5261,7 +5256,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5366,7 +5360,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5451,9 +5444,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0CA1-4FA5-B992-E9A9C4B769B7}"/>
                 </c:ext>
@@ -5495,7 +5486,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5614,9 +5604,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-0CA1-4FA5-B992-E9A9C4B769B7}"/>
                 </c:ext>
@@ -5658,7 +5646,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5777,9 +5764,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0CA1-4FA5-B992-E9A9C4B769B7}"/>
                 </c:ext>
@@ -5821,7 +5806,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6007,7 +5991,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6117,7 +6100,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6222,7 +6204,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6351,9 +6332,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-B9E8-4E7D-B32B-317ABA8FBE3F}"/>
                 </c:ext>
@@ -6395,7 +6374,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6516,7 +6494,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6684,7 +6661,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7214,7 +7190,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7318,7 +7293,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7423,7 +7397,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7530,9 +7503,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-1DAC-437F-B9ED-DAF76CEC5581}"/>
                 </c:ext>
@@ -7554,9 +7525,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-1DAC-437F-B9ED-DAF76CEC5581}"/>
                 </c:ext>
@@ -7598,7 +7567,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7725,7 +7693,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7899,7 +7866,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7940,6 +7906,1593 @@
         <a:schemeClr val="dk1">
           <a:lumMod val="25000"/>
           <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-2months'!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-2months'!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-2months'!$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8.8137800000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E536-47F3-826B-E9C6CFDEDEE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-2months'!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-2months'!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-2months'!$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.1478599999999993E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E536-47F3-826B-E9C6CFDEDEE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-2months'!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent3"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-2months'!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-2months'!$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.7554299999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E536-47F3-826B-E9C6CFDEDEE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-2months'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GBT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent4"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent4"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-2months'!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-2months'!$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.13877500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E536-47F3-826B-E9C6CFDEDEE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-2months'!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XGB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent5"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-2months'!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-2months'!$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.124997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E536-47F3-826B-E9C6CFDEDEE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="385633080"/>
+        <c:axId val="385630128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="385633080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385630128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="385630128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385633080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1300"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-2months'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-2months'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-2months'!$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.5691300000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADA9-436F-8811-98FA6878C7CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-2months'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-2months'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-2months'!$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.1656399999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ADA9-436F-8811-98FA6878C7CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-2months'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent3"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-2months'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-2months'!$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.9835500000000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ADA9-436F-8811-98FA6878C7CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-2months'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GBT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent4"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent4"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-2months'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-2months'!$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.104269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ADA9-436F-8811-98FA6878C7CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-2months'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XGB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent5"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-2months'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-2months'!$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.103214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-ADA9-436F-8811-98FA6878C7CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="387408768"/>
+        <c:axId val="387403520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="387408768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387403520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="387403520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387408768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-3months'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-3months'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-3months'!$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.109066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FD0-4A4C-B089-3BA999FB430F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-3months'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-3months'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-3months'!$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.1078599999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4FD0-4A4C-B089-3BA999FB430F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-3months'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent3"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-3months'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-3months'!$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.11977699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4FD0-4A4C-B089-3BA999FB430F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-3months'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GBT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent4"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent4"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-3months'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-3months'!$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.14541499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4FD0-4A4C-B089-3BA999FB430F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-3months'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XGB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent5"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-3months'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-3months'!$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.14152699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4FD0-4A4C-B089-3BA999FB430F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="462716568"/>
+        <c:axId val="462719848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="462716568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462719848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="462719848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462716568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -9158,9 +10711,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -9220,7 +10771,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -9427,9 +10977,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -9489,7 +11037,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -9696,9 +11243,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -9758,7 +11303,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -9965,9 +11509,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -10027,7 +11569,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -11047,6 +12588,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -18277,6 +19938,1563 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
@@ -22252,6 +25470,106 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -23057,11 +26375,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -23240,11 +26558,11 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -23423,11 +26741,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
@@ -23606,13 +26924,13 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
@@ -23796,6 +27114,250 @@
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A69:E69"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7.5691300000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9.1656399999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.9835500000000004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.104269</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.103214</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8.8137800000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="1">
+        <v>9.1478599999999993E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="1">
+        <v>9.7554299999999997E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.13877500000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.124997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B24:C24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.109066</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9.1078599999999996E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.11977699999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.14541499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.14152699999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23919,10 +27481,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -24117,10 +27679,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -25328,7 +28890,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B57" s="1">
@@ -25342,7 +28904,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="8" t="s">
         <v>113</v>
       </c>
       <c r="B58" s="1">
@@ -25356,7 +28918,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="10" t="s">
         <v>114</v>
       </c>
       <c r="B59" s="1">
@@ -25446,7 +29008,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B6" s="1">
@@ -25460,7 +29022,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B7" s="1">
@@ -25535,7 +29097,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B7" s="1">
@@ -25549,7 +29111,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B8" s="1">
@@ -25566,13 +29128,13 @@
       <c r="A9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>0</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>0.01</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>0</v>
       </c>
     </row>
@@ -25586,8 +29148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Writing/Graphs.xlsx
+++ b/Writing/Graphs.xlsx
@@ -8392,7 +8392,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8921,7 +8920,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9437,6 +9435,535 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="462716568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-3months'!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-3months'!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-3months'!$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.12703999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E4ED-4FD7-AD64-0ECB48DBA0AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-3months'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-3months'!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-3months'!$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.150036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E4ED-4FD7-AD64-0ECB48DBA0AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-3months'!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent3"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-3months'!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-3months'!$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.13461400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E4ED-4FD7-AD64-0ECB48DBA0AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-3months'!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GBT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent4"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent4"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-3months'!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-3months'!$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.18404699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E4ED-4FD7-AD64-0ECB48DBA0AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC-3months'!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XGB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent5"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC-3months'!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area under the PR curve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC-3months'!$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.177088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E4ED-4FD7-AD64-0ECB48DBA0AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="491731816"/>
+        <c:axId val="491733456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="491731816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491733456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="491733456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491731816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12708,6 +13235,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -21495,6 +22062,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
@@ -25570,6 +26656,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -27252,8 +28368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27328,31 +28444,41 @@
       <c r="B29" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1">
+        <v>0.12703999999999999</v>
+      </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1">
+        <v>0.150036</v>
+      </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1">
+        <v>0.13461400000000001</v>
+      </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1">
+        <v>0.18404699999999999</v>
+      </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1">
+        <v>0.177088</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
